--- a/Pintura Cinza.xlsx
+++ b/Pintura Cinza.xlsx
@@ -1218,7 +1218,7 @@
       <c r="H3" s="17" t="n"/>
       <c r="K3" s="20" t="inlineStr">
         <is>
-          <t>18.85 lata(s)</t>
+          <t>42.46 lata(s)</t>
         </is>
       </c>
       <c r="L3" s="56" t="n"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="Q3" s="20" t="inlineStr">
         <is>
-          <t>1.08 caixa(s)</t>
+          <t>2.5 caixa(s)</t>
         </is>
       </c>
       <c r="R3" s="56" t="n"/>
@@ -1253,7 +1253,7 @@
       <c r="AD3" s="17" t="n"/>
       <c r="AE3" s="20" t="inlineStr">
         <is>
-          <t>8.75 lata(s)</t>
+          <t>20.27 lata(s)</t>
         </is>
       </c>
       <c r="AF3" s="56" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="AM3" s="56" t="n"/>
       <c r="AN3" s="18" t="inlineStr">
         <is>
-          <t>4.31 lata(s)</t>
+          <t>9.99 lata(s)</t>
         </is>
       </c>
       <c r="AO3" s="18" t="n"/>
@@ -1294,7 +1294,7 @@
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="57" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="N4" s="24" t="n"/>
@@ -1355,7 +1355,7 @@
       <c r="AB5" s="24" t="n"/>
       <c r="AC5" s="5" t="n"/>
       <c r="AD5" s="45" t="n">
-        <v>45279.71308902464</v>
+        <v>45289.52123164041</v>
       </c>
       <c r="AE5" s="24" t="n"/>
       <c r="AF5" s="24" t="n"/>
@@ -1460,7 +1460,7 @@
     <row r="9" ht="27.95" customHeight="1">
       <c r="B9" s="59" t="inlineStr">
         <is>
-          <t>029945CO</t>
+          <t>030588CO</t>
         </is>
       </c>
       <c r="C9" s="27" t="n"/>
@@ -1469,7 +1469,7 @@
       <c r="F9" s="28" t="n"/>
       <c r="G9" s="30" t="inlineStr">
         <is>
-          <t>CHASSI F4 C/M</t>
+          <t>Chassi 5000 SS - COMPLETO</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -1513,7 +1513,7 @@
     <row r="10" ht="27.95" customHeight="1">
       <c r="B10" s="59" t="inlineStr">
         <is>
-          <t>030493CO</t>
+          <t>030620CO</t>
         </is>
       </c>
       <c r="C10" s="27" t="n"/>
@@ -1522,7 +1522,7 @@
       <c r="F10" s="28" t="n"/>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>CHASSI 2 EIXOS RS/RD SS</t>
+          <t>Chassi CBH/CBHM 4t SC</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -1566,7 +1566,7 @@
     <row r="11" ht="27.95" customHeight="1">
       <c r="B11" s="59" t="inlineStr">
         <is>
-          <t>030467CO</t>
+          <t>031502CO</t>
         </is>
       </c>
       <c r="C11" s="27" t="n"/>
@@ -1575,7 +1575,7 @@
       <c r="F11" s="28" t="n"/>
       <c r="G11" s="29" t="inlineStr">
         <is>
-          <t>Eixo Tras. Grande</t>
+          <t>CHASSI COMPLETO SS [CBHM 6000 CAFEEIRA]</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -1601,7 +1601,7 @@
       <c r="AB11" s="27" t="n"/>
       <c r="AC11" s="28" t="n"/>
       <c r="AD11" s="31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="27" t="n"/>
       <c r="AF11" s="27" t="n"/>
@@ -1619,7 +1619,7 @@
     <row r="12" ht="27.95" customHeight="1">
       <c r="B12" s="59" t="inlineStr">
         <is>
-          <t>030468CO</t>
+          <t>031547CO</t>
         </is>
       </c>
       <c r="C12" s="27" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="F12" s="28" t="n"/>
       <c r="G12" s="29" t="inlineStr">
         <is>
-          <t>Eixo Diant. Grande</t>
+          <t>Chassi CBHM 6000 Cafeeira 6000 SC</t>
         </is>
       </c>
       <c r="H12" s="27" t="n"/>
@@ -1654,7 +1654,7 @@
       <c r="AB12" s="27" t="n"/>
       <c r="AC12" s="28" t="n"/>
       <c r="AD12" s="31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
@@ -1672,7 +1672,7 @@
     <row r="13" ht="27.95" customHeight="1">
       <c r="B13" s="59" t="inlineStr">
         <is>
-          <t>032784CO</t>
+          <t>034630CO</t>
         </is>
       </c>
       <c r="C13" s="27" t="n"/>
@@ -1681,7 +1681,7 @@
       <c r="F13" s="28" t="n"/>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>Eixo F4 CM</t>
+          <t>CILINDRO CAF</t>
         </is>
       </c>
       <c r="H13" s="27" t="n"/>
@@ -1707,7 +1707,7 @@
       <c r="AB13" s="27" t="n"/>
       <c r="AC13" s="28" t="n"/>
       <c r="AD13" s="31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" s="27" t="n"/>
       <c r="AF13" s="27" t="n"/>
@@ -1725,7 +1725,7 @@
     <row r="14" ht="27.95" customHeight="1">
       <c r="B14" s="59" t="inlineStr">
         <is>
-          <t>025840CO</t>
+          <t>034880CO</t>
         </is>
       </c>
       <c r="C14" s="27" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="F14" s="28" t="n"/>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>5º Roda</t>
+          <t>CILINDRO 5000</t>
         </is>
       </c>
       <c r="H14" s="27" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="28" t="n"/>
       <c r="AD14" s="31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="27" t="n"/>
       <c r="AF14" s="27" t="n"/>
@@ -1779,7 +1779,7 @@
     <row r="15" ht="27.95" customHeight="1">
       <c r="B15" s="59" t="inlineStr">
         <is>
-          <t>023589CO</t>
+          <t>030383CO</t>
         </is>
       </c>
       <c r="C15" s="27" t="n"/>
@@ -1788,7 +1788,7 @@
       <c r="F15" s="28" t="n"/>
       <c r="G15" s="29" t="inlineStr">
         <is>
-          <t>IÇAMENTO COMPLETO SS CINZA [CBH/CBHM/FTC-2E]</t>
+          <t>Macaco Compl. CBHM 5000/FA</t>
         </is>
       </c>
       <c r="H15" s="27" t="n"/>
@@ -1814,7 +1814,7 @@
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="28" t="n"/>
       <c r="AD15" s="31" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
@@ -1832,7 +1832,7 @@
     <row r="16" ht="27.95" customHeight="1">
       <c r="B16" s="59" t="inlineStr">
         <is>
-          <t>029989CO</t>
+          <t>460576CO</t>
         </is>
       </c>
       <c r="C16" s="27" t="n"/>
@@ -1841,7 +1841,7 @@
       <c r="F16" s="28" t="n"/>
       <c r="G16" s="29" t="inlineStr">
         <is>
-          <t>5º Roda F4/6</t>
+          <t>Eixo 5000 SS</t>
         </is>
       </c>
       <c r="H16" s="27" t="n"/>
@@ -1867,7 +1867,7 @@
       <c r="AB16" s="27" t="n"/>
       <c r="AC16" s="28" t="n"/>
       <c r="AD16" s="31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
@@ -1885,7 +1885,7 @@
     <row r="17" ht="27.95" customHeight="1">
       <c r="B17" s="59" t="inlineStr">
         <is>
-          <t>462184CO</t>
+          <t>464922CO</t>
         </is>
       </c>
       <c r="C17" s="27" t="n"/>
@@ -1894,7 +1894,7 @@
       <c r="F17" s="28" t="n"/>
       <c r="G17" s="29" t="inlineStr">
         <is>
-          <t>IÇAMENTO COMPLETO SS CINZA [F4/6 M98]</t>
+          <t>Eixo Completo SC RD (5000) CBHM</t>
         </is>
       </c>
       <c r="H17" s="27" t="n"/>
@@ -1920,7 +1920,7 @@
       <c r="AB17" s="27" t="n"/>
       <c r="AC17" s="28" t="n"/>
       <c r="AD17" s="31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE17" s="27" t="n"/>
       <c r="AF17" s="27" t="n"/>

--- a/Pintura Cinza.xlsx
+++ b/Pintura Cinza.xlsx
@@ -1355,7 +1355,7 @@
       <c r="AB5" s="24" t="n"/>
       <c r="AC5" s="5" t="n"/>
       <c r="AD5" s="45" t="n">
-        <v>45289.52123164041</v>
+        <v>45289.5603462259</v>
       </c>
       <c r="AE5" s="24" t="n"/>
       <c r="AF5" s="24" t="n"/>
